--- a/outputs/everything_0.1_train.xlsx
+++ b/outputs/everything_0.1_train.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="d__Archaea-b" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="d__Bacteria-b" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="d__Archaea-b1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="d__Bacteria-b1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10171,4 +10173,9756 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d__Archaea-d__Bacteria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003661265.1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.406756255809427</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001469865.1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.019619774572117</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003266165.1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.02995313010553492</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001516765.1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1000833160006409</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002502965.1_0</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.09305545687879255</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000235565.1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2592125371768812</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002692465.1_0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.3699451434081452</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000328665.1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4714792400249363</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001918765.1_0</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6958760888215266</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000275865.1_0</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1724667405177558</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000387965.1_0</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.347906791645858</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003551265.1_0</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.07962703468796181</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003695265.1_0</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.393715594889734</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001443365.1_0</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.5212357170697648</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003694965.1_0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3948307473132949</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001768965.1_0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4779916153732233</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000376965.1_0</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4189280242587751</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000970265.1_0</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8908373917147461</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003266065.1_0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2723187318171248</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003058365.1_0</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8722226705416201</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002688165.1_0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4352630878990693</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002011165.1_0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2515323238599398</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002497765.1_0</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9062906992468786</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002693165.1_0</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.500545003015756</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000018365.1_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6850325083397285</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002506665.1_0</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4070033252160028</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003561665.1_0</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5787144414778177</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002509165.1_0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.63545994669486</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000018465.1_0</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.7004572974867759</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000415965.1_0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6420406856920651</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003344565.1_0</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.330130274210002</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000237865.1_0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.141610615149861</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002495065.1_0</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3176721247188625</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001563965.1_0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.149706723212639</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C613"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d__Archaea-d__Bacteria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900019265.1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.217684177226854</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000380165.1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.361597857731538</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900156865.1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.094889566714671</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002831665.1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.277767429770291</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000220865.1_0</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.208829538183784</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002401965.1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.078529432434135</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002712165.1_0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.685540675179618</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001822065.1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9878587900317123</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001791465.1_0</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.068473105728903</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007120165.1_0</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.540792760421709</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003755065.1_0</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.452534304180901</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001613365.1_0</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.472515066777099</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003996965.1_0</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.232368856724141</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003129565.1_0</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.360545496251219</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002166865.1_0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.978063326294504</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000007365.1_0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.996420686696527</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003269065.1_0</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.249253551992554</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002292265.1_0</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7815386713579197</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003551365.1_0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.890101405963399</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003584865.1_0</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.056331545358634</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007113665.1_0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.734092277916749</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900549765.1_0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.755524373580742</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002717565.1_0</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4584670169929257</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006715565.1_0</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.594723080469419</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900114765.1_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.841900129826775</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001799365.1_0</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9717317319238438</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000518665.1_0</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.087268103046698</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000015965.1_0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.450189207749369</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002450165.1_0</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.277719693304673</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001418565.1_0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.579786288492086</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003667865.1_0</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.548669189844094</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002701365.1_0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6174027428839196</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001795165.1_0</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.45544759712342</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002408465.1_0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.049962160779862</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001654965.1_0</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.541687337387052</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003337565.1_0</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.304285792920324</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001464765.1_0</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.381793046362519</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000092365.1_0</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8463428497848299</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003647065.1_0</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.858224803572466</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001622165.1_0</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6881557806817322</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002746565.1_0</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9576126431024288</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001069865.1_0</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.264907255483423</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002835465.1_0</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.297108067880635</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000621765.1_0</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4504340228783346</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001786365.1_0</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.415174267362226</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001591265.1_0</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9980054453717495</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000959365.1_0</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.197251576292274</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002402965.1_0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8776874280571885</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000387765.1_0</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3669099284666264</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006538365.1_0</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9566530069444604</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000737065.1_0</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8698525887606102</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002293265.1_0</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9914821287263509</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000321165.1_0</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5121091905612331</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002692065.1_0</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8004922140579445</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000022565.1_0</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.602220329006486</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900548765.1_0</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7871723732428467</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000421565.1_0</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.205294198511533</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001796965.1_0</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9251473120504689</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005960665.1_0</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.065422423435925</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004362865.1_0</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.676895742401845</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002494165.1_0</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5667985663258933</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004295165.1_0</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9968053533337298</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002563965.1_0</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.152209848502141</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000701865.1_0</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.054040737253343</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003557865.1_0</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2396617596205927</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900100965.1_0</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.103818800144709</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002924365.1_0</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.496923188590928</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007121565.1_0</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.220850816901739</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003513765.1_0</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.172151017194733</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002255565.1_0</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9674474650085202</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000422465.1_0</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.932862175241349</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001536065.1_0</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.03273332034689706</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000448565.1_0</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.065290356579664</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003113265.1_0</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2.218599718299958</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900108065.1_0</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.648359113445556</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006542765.1_0</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9730313805768912</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002893765.1_0</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.112491920877972</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002501065.1_0</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3203967627325635</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004299065.1_0</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8751867593676329</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900172265.1_0</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.216094195253314</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002440965.1_0</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.238956322385182</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006874465.1_0</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1.316882502847766</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007097365.1_0</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.514343343922381</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002831565.1_0</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.166060143926972</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900128465.1_0</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.256568343873031</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004349265.1_0</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.397266566780908</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900016865.1_0</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7738897502680716</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003324565.1_0</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.127790026422861</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000509365.1_0</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8745940182508593</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000011365.1_0</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1.117325894593657</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003488465.1_0</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8603849974686492</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002413265.1_0</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.405967667491504</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003943465.1_0</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.401653218603404</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000265465.1_0</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.660582312007551</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900104765.1_0</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7751989192328931</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003071665.1_0</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.262162240980719</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003166865.1_0</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1.380525523254681</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003452965.1_0</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.362973835628138</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004777465.1_0</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2.192363915375813</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001513365.1_0</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.081473870101195</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003671065.1_0</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5307752146533481</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000183665.1_0</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.8395896673065263</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001682865.1_0</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7361476683004843</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005981965.1_0</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2.173481941893106</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900240265.1_0</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9562325007507324</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001439665.1_0</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1.1244138834797</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000279165.1_0</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1.639369968270484</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002067165.1_0</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.4367480630572466</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000607165.1_0</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.353404394204833</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002238665.1_0</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9196248402208349</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001590965.1_0</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.618761930050169</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900113765.1_0</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.459731087511416</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001888165.1_0</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8834074873383521</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002427465.1_0</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1.300841734343208</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002477665.1_0</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.584047204910756</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004614165.1_0</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1.972768116060336</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002389265.1_0</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.315296252213167</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000711965.1_0</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1.400579621051659</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003574465.1_0</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1.576826944292868</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001764565.1_0</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1.415646462066598</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900129965.1_0</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1.458176199329738</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900550765.1_0</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1.341643252931717</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900107765.1_0</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.247955412732835</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002299965.1_0</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9396745894221404</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900187565.1_0</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.712255408485344</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002394465.1_0</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1.084129466121459</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002350065.1_0</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1.136461983391441</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003971065.1_0</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1.164669108429356</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001741865.1_0</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1.480941155387195</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003568665.1_0</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1.445491038757881</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900115365.1_0</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.350364393587642</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004124465.1_0</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1.235892428590026</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002363865.1_0</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1.288019077506463</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001875665.1_0</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9645945870667884</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002993965.1_0</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.063624744743317</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003243465.1_0</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2.158905869449723</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005791165.1_0</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1.183500660222998</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000508865.1_0</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1.816599866554538</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000473165.1_0</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1.71537926750892</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002290065.1_0</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7084158558513211</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003331565.1_0</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.8966852862321842</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001426565.1_0</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1.549721737580295</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003576765.1_0</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1.870775676638376</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001429065.1_0</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1.410882838923176</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002482765.1_0</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1.494488670884339</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000730165.1_0</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1.941896897241391</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001873165.1_0</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1.202383541386806</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002451065.1_0</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1.271118475581428</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900115665.1_0</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1.264384223156041</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001774865.1_0</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1.155345540574586</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004796465.1_0</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9523840758824006</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900142165.1_0</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1.277628347114081</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900143565.1_0</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1.486742645110711</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900547565.1_0</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1.405422566368814</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006715165.1_0</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1.398417425850034</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003664165.1_0</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1.372353175055186</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002282565.1_0</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1.340279756823714</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002747365.1_0</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1.634889601472601</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000406965.1_0</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1.502967919609027</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900141665.1_0</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9721016569030622</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006476065.1_0</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1.968269359093819</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004525465.1_0</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1.180001707854406</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005240065.1_0</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1.48201784388436</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000091165.1_0</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7545789054956857</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007018965.1_0</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1.59858193106314</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006716465.1_0</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1.331139804175079</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001941465.1_0</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.955495859206655</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001484965.1_0</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.6202976146368591</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002492465.1_0</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1.382947301699009</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002188365.1_0</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1.536752709072579</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000505665.1_0</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1.531410313778564</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900169265.1_0</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9700040194576823</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006715865.1_0</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1.227185130151454</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002007365.1_0</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.6562891186382349</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003129465.1_0</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1.485145763931087</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004555765.1_0</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.23978885251947</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000090965.1_0</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>4.106188311810064</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005434965.1_0</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1.289112059788388</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002389765.1_0</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1.260864201804792</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000381565.1_0</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2.465489392048982</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000472965.1_0</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1.829947175375634</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900106565.1_0</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1.109379957314842</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900538765.1_0</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1.637464002850633</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001750165.1_0</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.6695652730338409</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000812965.1_0</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1.521517443111255</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001613465.1_0</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1.666289205712907</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900539765.1_0</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9829044881259607</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900097965.1_0</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1.683463858855935</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000017265.1_0</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1.573605753023844</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003952665.1_0</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1.982413096127918</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002863565.1_0</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9782705037711891</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003987065.1_0</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1.656010734861748</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005080865.1_0</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2.122496318537875</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004028765.1_0</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1.516618699903934</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900141865.1_0</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9249090440695155</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001990265.1_0</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1.461474934220903</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900188165.1_0</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1.789162133190941</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004357765.1_0</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1.853876507000425</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005893165.1_0</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7686942007200259</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001592365.1_0</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.9261207185614674</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003952365.1_0</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1.745101601475871</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900554165.1_0</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.6550366626330447</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000420765.1_0</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2.095115370172823</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900317065.1_0</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.9760047338262069</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002500665.1_0</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.00864809157435863</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000620865.1_0</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.8617524428937585</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002252665.1_0</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2.175954202495743</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006742065.1_0</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1.078178365848577</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002926165.1_0</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1.467399618413952</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900554565.1_0</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1.436639115890611</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001636565.1_0</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.9650942847278301</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000154565.1_0</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1.00812152918031</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002293965.1_0</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.3261066622807377</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003234565.1_0</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.6631865784779419</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003070665.1_0</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1.326262586881613</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002382665.1_0</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1.034331141513268</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900176465.1_0</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1.522454640027996</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000747665.1_0</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1.708054769145765</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001626765.1_0</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.8284330697172938</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000429965.1_0</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.8282869069807562</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004293365.1_0</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1.1793487709409</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001941865.1_0</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1.795802103705001</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002336465.1_0</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1.574908546916307</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002437665.1_0</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.8557120460980292</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000372365.1_0</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1.818045202865904</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003751265.1_0</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1.13384977230124</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003484865.1_0</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1.688438442314176</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005845265.1_0</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1.116765838043785</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003513265.1_0</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1.075111335004596</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002714565.1_0</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.9617726711956273</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001302565.1_0</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1.491703337537023</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001295265.1_0</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1.202260975882823</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000024965.1_0</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1.534098814033728</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003557765.1_0</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1.069829001650197</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004843165.1_0</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1.483057214666339</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003046365.1_0</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1.363054339816646</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002781365.1_0</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1.369500974435322</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900316165.1_0</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.7528797333290362</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002224365.1_0</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1.374788897617058</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001998865.1_0</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1.784683401555917</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003235465.1_0</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1.330218872392402</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003486165.1_0</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.7879484436584059</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002159765.1_0</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.6116115362739517</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003527965.1_0</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1.18111684878974</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900156165.1_0</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1.252148712999282</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002858765.1_0</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1.302051487699881</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007117665.1_0</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1.633015207469325</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000416965.1_0</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1.014155458970909</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003695765.1_0</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1.563513234711798</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002943565.1_0</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1.706830531733235</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002838765.1_0</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.8917035041585264</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001422365.1_0</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1.768899048410637</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002424365.1_0</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.5914269293811178</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001421765.1_0</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1.643466124138406</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000427365.1_0</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.9266069229067908</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900102265.1_0</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1.34185280544059</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004798665.1_0</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1.10788132381157</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000771265.1_0</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.9766141724749032</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003521065.1_0</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.8846442665631218</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900496965.1_0</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1.618146050021315</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002385665.1_0</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.7798539714297803</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003968865.1_0</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.9579977915235112</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001646665.1_0</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.6517229134883619</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900102165.1_0</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.9276978717170044</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004761865.1_0</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1.518524434329921</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001700965.1_0</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2.027649139692546</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001623565.1_0</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1.012501933025585</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002418265.1_0</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.6563217757594918</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002261265.1_0</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1.753987086678669</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001792465.1_0</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.8099096660845532</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001428365.1_0</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1.347031429355744</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002155965.1_0</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1.61647974270726</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001555965.1_0</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1.549260815063966</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003531665.1_0</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.6464566213494723</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900583165.1_0</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1.654867340803368</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002573965.1_0</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2.301087683980223</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900313265.1_0</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1.250480851894014</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000143965.1_0</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2.047563034849421</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005884465.1_0</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1.686754342697924</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002342365.1_0</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1.113667621971284</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002413665.1_0</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1.337967407797471</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900129765.1_0</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1.353279533829209</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005519465.1_0</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1.176181449398357</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000423065.1_0</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.4669910494430325</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005795965.1_0</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2.055570723359081</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001466965.1_0</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1.20596840041471</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002401565.1_0</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1.076945591516755</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004022565.1_0</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1.197308794200245</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002748265.1_0</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1.736160944204697</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003058465.1_0</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.8782162937117073</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002257565.1_0</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1.604920393945245</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003563465.1_0</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.7837620260893424</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002311865.1_0</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1.061241380530854</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002375465.1_0</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.9499412917956622</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002709665.1_0</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.9577769115391116</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001873365.1_0</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1.026175318626698</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900110165.1_0</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1.238052385764483</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002902265.1_0</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1.120085972277316</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001303765.1_0</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2.506164227574188</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003228965.1_0</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.9321422292353975</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000706765.1_0</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.5976528213280246</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004403065.1_0</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1.542016284698572</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001304365.1_0</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.5589731951483999</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000620165.1_0</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.8687327186814314</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004295665.1_0</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1.837777643627906</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003569265.1_0</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.9818113680291929</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005800865.1_0</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1.218165460518655</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001781465.1_0</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1.127888434888104</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000420065.1_0</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1.23773839444486</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900168265.1_0</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.9256964894851023</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900106765.1_0</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.9010015020833708</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002441565.1_0</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1.064854758564962</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000379765.1_0</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.6921145357893455</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002472565.1_0</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.790976506364453</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003234965.1_0</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1.717843534115092</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001484565.1_0</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1.176547013522139</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000466265.1_0</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1.144198264925602</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002993365.1_0</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1.395549578607137</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003860565.1_0</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1.706456519006677</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900157365.1_0</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1.347616364321597</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000372465.1_0</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1.652296479236814</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002843565.1_0</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1.791414014284569</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004322365.1_0</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1.317249729451282</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002095465.1_0</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1.877245240806913</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003633965.1_0</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1.058997953275422</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003481565.1_0</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.5844288059254015</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003696565.1_0</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1.118322500284052</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900555265.1_0</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1.043466735183076</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002457765.1_0</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1.868618328531723</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001295365.1_0</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1.442741552600532</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004135365.1_0</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1.248303546777833</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002393965.1_0</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1.178318074081808</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007118565.1_0</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.6156682086472348</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003946865.1_0</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.7517121356991755</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003500765.1_0</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1.314140344762261</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003412465.1_0</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.869722549956512</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001905465.1_0</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1.776397897935418</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003176165.1_0</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.9498757614337001</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001422665.1_0</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.7720184626981991</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003600865.1_0</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.370299904207412</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001772665.1_0</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.733795866145814</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005239865.1_0</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1.374857710820073</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002433065.1_0</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.3922523668409471</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900538365.1_0</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1.164954642996057</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003283665.1_0</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.9074940561302098</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003970865.1_0</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1.899100452499719</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000209465.1_0</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1.21855471098233</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900547165.1_0</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1.476786296680155</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900176565.1_0</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.997091649293009</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001890765.1_0</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.9615018251580133</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005885565.1_0</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1.19413390399269</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000855665.1_0</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1.840967563726274</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000620565.1_0</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1.013901517077625</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305265.1_0</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.9628164867773836</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002014765.1_0</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1.267774921374419</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001644665.1_0</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1.167736488777819</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000483165.1_0</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1.2058354538584</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001425465.1_0</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1.328948384992471</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900112865.1_0</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>2.315016158335074</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004342265.1_0</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1.427442143112831</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004345565.1_0</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1.480802591479523</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003053565.1_0</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1.197785377002559</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001645765.1_0</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.4704641952967187</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000143165.1_0</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1.038001967489096</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000426465.1_0</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1.295635526212078</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005871165.1_0</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1.165177789817114</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900539865.1_0</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1.300274973113193</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000377765.1_0</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1.553359747631094</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002877365.1_0</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1.057453313342071</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002159065.1_0</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1.395462487530548</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001424265.1_0</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1.930431533511777</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003209165.1_0</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1.677746286720062</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003456765.1_0</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.507417491600372</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003994465.1_0</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1.116419271184837</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000023265.1_0</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.9037474835876479</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004345365.1_0</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.9676099287446317</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000472865.1_0</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1.261696333376817</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003390865.1_0</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1.441727287677821</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900553165.1_0</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1.423804411891817</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900539665.1_0</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.5755782475232172</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003557965.1_0</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.6440729509949886</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005082365.1_0</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1.999790847749567</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003133265.1_0</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>2.397129866946314</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002358165.1_0</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1.830171758658715</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001186365.1_0</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1.182886945329877</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001425265.1_0</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>2.356325799274472</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003347665.1_0</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1.210451604947877</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004745865.1_0</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1.274389328708956</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900445265.1_0</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1.547432978024185</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004566265.1_0</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1.659120221374576</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003201365.1_0</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1.082445056995115</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005799065.1_0</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1.071201322267215</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004292865.1_0</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1.600234989599901</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002721165.1_0</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1.198279992271607</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004562065.1_0</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1.133990916377615</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002409965.1_0</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.8304732538638614</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900549465.1_0</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.2157351727969462</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004378665.1_0</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.005979304000145614</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003131365.1_0</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.9568878035723352</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001805565.1_0</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.722228444672108</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003550565.1_0</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0.8838209939350394</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001886265.1_0</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1.792105496823766</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000620665.1_0</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1.818008069815769</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001419765.1_0</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1.027229416170354</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900489465.1_0</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1.350240811220708</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000974765.1_0</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1.570880148454861</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002435365.1_0</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.9224837215404272</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001528665.1_0</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1.691544342572902</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001269365.1_0</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1.026712088917864</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000313565.1_0</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1.656095795344636</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_006494365.1_0</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1.215164427457334</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002863865.1_0</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.97439413526545</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001431665.1_0</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>2.366885064955934</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900182565.1_0</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1.03592945121816</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900169565.1_0</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1.149919292372536</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001895165.1_0</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1.410119236430796</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002441265.1_0</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.420118699974262</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001801865.1_0</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1.327755305418478</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002437565.1_0</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1.439311982769894</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004354365.1_0</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1.000607992967879</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001464665.1_0</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1.291987075957186</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003865365.1_0</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.9509710534094068</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003987565.1_0</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1.691229057542635</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003063265.1_0</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>2.110020694188968</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900143065.1_0</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1.548788268878535</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003553465.1_0</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1.135565193186411</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001563265.1_0</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1.371474745870712</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002339165.1_0</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.9507700897440741</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002470465.1_0</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1.849532912238308</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900095165.1_0</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1.21733293137995</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007130865.1_0</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0.3820027908543689</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003946465.1_0</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1.644620248304436</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001297065.1_0</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1.391821200974587</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000276965.1_0</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.699246278728086</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001612965.1_0</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1.410423789456263</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000235465.1_0</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1.543522562336728</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005788265.1_0</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1.272197523111114</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003026365.1_0</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1.20805119628981</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900155565.1_0</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1.385761715170085</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002350465.1_0</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.4575569800821584</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001870465.1_0</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1.800515323774313</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900454865.1_0</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1.071403952735857</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000735365.1_0</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1.661543977373914</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002344065.1_0</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1.327645534949781</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900176865.1_0</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1.723803251062529</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007127665.1_0</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1.07857747713551</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003647765.1_0</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.804595203623257</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003509065.1_0</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.8191206990713259</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003417065.1_0</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1.603654112445499</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900315265.1_0</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1.001763312759659</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004022165.1_0</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.9148034652487899</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000020665.1_0</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1.76836697127399</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003552365.1_0</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1.516023352584525</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001189365.1_0</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.7300498491401533</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002127965.1_0</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1.009217112053314</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002717765.1_0</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1.488315693097549</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000429865.1_0</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1.395852559003184</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900465665.1_0</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0.7445239445586909</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900538465.1_0</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1.046213078624586</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002422465.1_0</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.9350979473859332</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001187865.1_0</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1.972938653563682</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002699165.1_0</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0.9015262999818464</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004555865.1_0</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1.618975938097646</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000621865.1_0</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0.7691875371622582</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000518165.1_0</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1.631430651620888</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005503165.1_0</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1.669325964282961</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000423565.1_0</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1.509468853367973</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001823065.1_0</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1.130878789175125</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002320665.1_0</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1.032306520914149</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005221465.1_0</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1.470515841694525</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001592965.1_0</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.9678742444519376</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001613265.1_0</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1.409180425127969</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002385265.1_0</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1.32518124912902</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004100265.1_0</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1.488402173319373</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001836165.1_0</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.8707265400669338</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001302265.1_0</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1.204415907656871</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002319965.1_0</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1.332511151357781</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002452265.1_0</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1.158057100574787</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002340765.1_0</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.9095238979254058</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001873065.1_0</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1.450704193689413</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900318865.1_0</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1.500433290546752</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900320565.1_0</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1.006917043167946</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000813765.1_0</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1.470245150083191</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001895265.1_0</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.8241467004977491</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900187065.1_0</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1.113475237273449</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005772765.1_0</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.764471679530412</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001421565.1_0</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1.751897746568281</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001584565.1_0</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1.291154962994501</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004340965.1_0</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.8285993864073783</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004681965.1_0</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1.913206517867779</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001905665.1_0</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1.132882795944111</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000378165.1_0</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1.018145429485781</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003645965.1_0</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.8582380133457228</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002427365.1_0</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1.882891450632884</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900316565.1_0</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1.0984630853121</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004346265.1_0</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1.549996602034979</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007123265.1_0</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1.281605316728582</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002964665.1_0</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1.510915814154833</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003351765.1_0</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1.872042445962154</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000430765.1_0</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1.416834963991183</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003527165.1_0</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1.612391397188494</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900116065.1_0</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1.415421879832915</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003386865.1_0</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1.2287575764352</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002715865.1_0</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.9582203336519649</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002926065.1_0</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1.002070327229941</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007132865.1_0</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1.436289391457078</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002387565.1_0</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1.592742023211981</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000972765.1_0</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1.169069205017195</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002954665.1_0</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1.602506260019284</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002470565.1_0</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.9911105525337894</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001633165.1_0</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1.172757911716303</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003585965.1_0</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1.126124116686579</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002715265.1_0</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.6407188008296621</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002352465.1_0</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1.635889628251739</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001428665.1_0</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1.607589594569746</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000015265.1_0</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1.473166573170907</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900111165.1_0</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1.358623215810187</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900176265.1_0</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1.54982259216915</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900187165.1_0</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1.060564400910791</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003448565.1_0</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1.190262501605164</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002293365.1_0</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1.390470973698555</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000466165.1_0</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1.627559566723936</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002903165.1_0</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>2.184892109517396</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000381265.1_0</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1.926584974628393</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002314565.1_0</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1.208406006273173</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900549565.1_0</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1.320270829145808</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003709165.1_0</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1.211233205226509</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003520365.1_0</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1.669357772226016</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001953865.1_0</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1.414661811415471</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002265265.1_0</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1.038153912243219</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002878065.1_0</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1.13758089381699</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000518365.1_0</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1.987784900712437</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003650365.1_0</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0.7972337687239708</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900176165.1_0</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1.226840479704008</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900314465.1_0</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0.5269099670292661</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900315465.1_0</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1.037240761325899</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900110965.1_0</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1.267320131475861</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900103865.1_0</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1.509140795253032</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007133365.1_0</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.7865314357919002</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900112765.1_0</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1.319954543385822</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002293065.1_0</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1.323695894464263</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004307965.1_0</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1.729790401057118</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000829465.1_0</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1.20521618931846</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000373565.1_0</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1.385235458457329</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900114565.1_0</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1.483255687188439</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900205965.1_0</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1.186261208192554</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900544765.1_0</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1.100972452239978</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002428965.1_0</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1.08702835220631</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900070365.1_0</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1.017412210109011</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001899065.1_0</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1.998920561261595</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000221565.1_0</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.1249125333355826</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002294665.1_0</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1.243916423699871</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000422565.1_0</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.9978989114295272</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000504165.1_0</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.9242718640223462</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002731665.1_0</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.7960679701841519</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003058165.1_0</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1.787617724391336</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002690165.1_0</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1.491508655860067</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001314865.1_0</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1.54384326072676</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900142465.1_0</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1.356050847747432</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002405565.1_0</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1.364410707757381</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002329365.1_0</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1.742676956610783</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002689665.1_0</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.7613665662704784</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005800465.1_0</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1.24900391242934</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003331365.1_0</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.9532201346114514</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002902565.1_0</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1.211444945980833</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900113865.1_0</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1.606211321078351</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000741765.1_0</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1.265845506145535</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002708065.1_0</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.8479701101070902</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003330765.1_0</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1.614945090650173</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003344765.1_0</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1.972602175048957</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003552565.1_0</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1.056545451282269</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000315565.1_0</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1.311928359676104</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002399265.1_0</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.8761280871693368</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003216465.1_0</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1.146740876808394</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005792865.1_0</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1.037679844682733</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003220265.1_0</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1.916009051780321</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000507865.1_0</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.4288243130410201</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_007125165.1_0</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1.234222876568861</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003259365.1_0</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1.69747079073554</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_005405165.1_0</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.5867274287843512</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003282965.1_0</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1.529534881918852</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900094565.1_0</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1.33412957163035</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900698865.1_0</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>2.691369705637324</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000024165.1_0</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1.850854258959559</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001591365.1_0</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1.511493133295151</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003527065.1_0</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1.501624271531038</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001423665.1_0</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1.092015152255317</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002198665.1_0</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>2.15568576422323</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002691165.1_0</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1.433019296110437</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003554865.1_0</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1.169589720395597</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900091565.1_0</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>2.073867108476037</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001797365.1_0</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1.145014998033548</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003519965.1_0</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1.629702425612217</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002753665.1_0</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1.075246077514805</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000014565.1_0</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.5137476189811722</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002451165.1_0</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0.451833558477403</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002479765.1_0</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1.39486267536945</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002328465.1_0</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0.3357816748997169</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001613165.1_0</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1.207588277087684</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305765.1_0</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.1301562070043115</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>d__Archaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900618065.1_0</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1.405343545565988</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004116565.1_0</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.9294558074574916</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002480165.1_0</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1.016547638257628</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003280265.1_0</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1.029899919512125</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002347365.1_0</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.8828428421062123</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000518265.1_0</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1.61149978316835</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_004361065.1_0</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1.936534755295047</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003072465.1_0</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1.146952286504099</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000961765.1_0</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.4616205863378104</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002272865.1_0</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.9399751883233827</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_003072065.1_0</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>2.026196173766704</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_005144965.1_0</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>2.030006280928746</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>d__Bacteria</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>